--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyw\Desktop\wangywust.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0594FFF0-385B-430A-AB15-532354BF1C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F282C56-2624-4CAF-9EA3-E834F7854663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5B8B9D4F-B768-4FEE-AB84-4BFDBEF78995}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{5B8B9D4F-B768-4FEE-AB84-4BFDBEF78995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A3:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,8 +451,8 @@
         <v>37000</v>
       </c>
       <c r="D4">
-        <f>B4*1*(12*A4^2 + 13*A4) + C4*A4 *1 +B4*1*(16*A4^2 + 17*A4)</f>
-        <v>214233088</v>
+        <f>B4*1*(12*A4^2 + 13*A4)+B4*1*(16*A4^2 + 17*A4)</f>
+        <v>176345088</v>
       </c>
     </row>
   </sheetData>
